--- a/SubwayData/Excel/8호선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/8호선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{503AB03E-F069-ED4B-A1DF-676EFA693479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D0A43D-0F14-2944-9E72-48E0CDB216B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{C032223A-6A6D-3144-B70C-01E11405F8B9}"/>
   </bookViews>
@@ -60,18 +60,9 @@
     <t>암사</t>
   </si>
   <si>
-    <t>천호(풍납토성)</t>
-  </si>
-  <si>
     <t>강동구청</t>
   </si>
   <si>
-    <t>몽촌토성(평화의문)</t>
-  </si>
-  <si>
-    <t>잠실(송파구청)</t>
-  </si>
-  <si>
     <t>석촌</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>산성</t>
   </si>
   <si>
-    <t>남한산성입구(성남법원·검찰청)</t>
-  </si>
-  <si>
     <t>단대오거리</t>
   </si>
   <si>
@@ -109,6 +97,22 @@
   </si>
   <si>
     <t>모란</t>
+  </si>
+  <si>
+    <t>천호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몽촌토성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남한산성입구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -524,7 +528,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -565,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3">
         <v>1.3</v>
@@ -579,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3">
         <v>0.9</v>
@@ -593,7 +597,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3">
         <v>1.6</v>
@@ -607,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3">
         <v>0.8</v>
@@ -621,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3">
         <v>1.3</v>
@@ -635,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3">
         <v>0.9</v>
@@ -649,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D9" s="3">
         <v>0.8</v>
@@ -663,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
         <v>0.9</v>
@@ -677,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D11" s="3">
         <v>0.9</v>
@@ -691,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3">
         <v>0.9</v>
@@ -705,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3">
         <v>1.4</v>
@@ -719,7 +723,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3">
         <v>1.3</v>
@@ -733,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3">
         <v>1.3</v>
@@ -747,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
         <v>0.8</v>
@@ -761,7 +765,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3">
         <v>0.8</v>
@@ -775,7 +779,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3">
         <v>0.8</v>
@@ -789,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
